--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F4842B-12CC-42EA-976F-4F1931177893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667EC31-6F09-4D6B-8D82-9A3A538BC53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
-  <si>
-    <t>DSA SUPREME QUESTIONS WEEK WISE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>WEEK NO</t>
   </si>
@@ -114,9 +111,6 @@
     <t>T.C</t>
   </si>
   <si>
-    <t>S.C</t>
-  </si>
-  <si>
     <t>Peak Index in Mountain Array (LeetCode Q852)</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Square Root using Binary Search</t>
   </si>
   <si>
-    <t>Search in 2d Matrix</t>
-  </si>
-  <si>
     <t>Search in Nearly/Almost Sorted Array</t>
   </si>
   <si>
@@ -193,6 +184,84 @@
   </si>
   <si>
     <t>Live Classes Ended</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/ArrayQues/MoveNegativeToLeft.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/ArrayQues/FindMissing.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/ArrayQues/FstRptElmnt.cpp</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/common-elements1132/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/2DArray/WavePrintMatrix.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/2DArray/SpiralOrder.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/BinarySearch.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/SquareRoot.cpp</t>
+  </si>
+  <si>
+    <t>Binary Search in 2d Matrix</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/BinarySearchMatrix.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/SearchNearlySortedArray.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/Divide.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/OddOccurence.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BubbleSort.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/SelectionSort.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/InsertionSort.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Searching.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/ExponentialSearch.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   DSA SUPREME QUESTIONS WEEK WISE</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/the-painters-partition-problem1535/1</t>
+  </si>
+  <si>
+    <t>Painter Partition Problem</t>
+  </si>
+  <si>
+    <t>Aggressive Cows</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/aggressive-cows/1</t>
+  </si>
+  <si>
+    <t>EKO SPOJ</t>
+  </si>
+  <si>
+    <t>https://www.spoj.com/problems/EKO/</t>
   </si>
 </sst>
 </file>
@@ -641,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE5E5C-175D-457A-A869-808BAF02FDBA}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,439 +723,513 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="90.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="95.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
-        <v>2</v>
+        <f>SUM(C3:C4)</f>
+        <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
-        <f>SUM(C4:C5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <f>SUM(C13:C14)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="10">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="5">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="5">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
-        <f>SUM(C14:C15)</f>
+      <c r="F30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <f>SUM(C29:C30)</f>
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
+      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
+      <c r="D32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
+      <c r="D33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="5">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="5">
+      <c r="D34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="5">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="5">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="5">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="5">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="5">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="5">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="5">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="5">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="5">
-        <f>SUM(C30:C31)</f>
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="5">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="5">
-        <v>5</v>
-      </c>
+      <c r="D35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1115,19 +1258,19 @@
     <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667EC31-6F09-4D6B-8D82-9A3A538BC53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDA55B-0557-4D72-BF09-23918B7DB5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>WEEK NO</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>https://www.spoj.com/problems/EKO/</t>
+  </si>
+  <si>
+    <t>https://www.spoj.com/problems/PRATA/</t>
+  </si>
+  <si>
+    <t>PRATA SPOJ</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/EkoSpoj.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/PrataSpoj.cpp</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE5E5C-175D-457A-A869-808BAF02FDBA}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1241,34 @@
       </c>
     </row>
     <row r="36" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G36" s="4"/>
+      <c r="F36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="5">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDA55B-0557-4D72-BF09-23918B7DB5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF475BFB-1133-438C-8B05-8D3248253BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>WEEK NO</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/PrataSpoj.cpp</t>
+  </si>
+  <si>
+    <t>Char Arrays &amp; Strings</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Revere</t>
   </si>
 </sst>
 </file>
@@ -722,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE5E5C-175D-457A-A869-808BAF02FDBA}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>6</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>7</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>8</v>
       </c>
@@ -1262,12 +1271,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF475BFB-1133-438C-8B05-8D3248253BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C0BDB-5519-4106-B86E-214E5BA08B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>WEEK NO</t>
   </si>
@@ -45,9 +45,6 @@
     <t>TOPIC</t>
   </si>
   <si>
-    <t xml:space="preserve">QUESTION NO </t>
-  </si>
-  <si>
     <t>QUESTION</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Array &amp; Vector</t>
-  </si>
-  <si>
     <t>Sort Colors(Leetcode Q75)</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
   </si>
   <si>
-    <t>Searching &amp; Sorting</t>
-  </si>
-  <si>
     <t>Linear Search</t>
   </si>
   <si>
@@ -276,20 +267,74 @@
     <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/BinarySearch/PrataSpoj.cpp</t>
   </si>
   <si>
-    <t>Char Arrays &amp; Strings</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Revere</t>
+    <t>Reverse of a Char Array</t>
+  </si>
+  <si>
+    <t>Length of a Char Array</t>
+  </si>
+  <si>
+    <t>Replace all spaces by @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome </t>
+  </si>
+  <si>
+    <t>UpperCase to LowerCase</t>
+  </si>
+  <si>
+    <t>LowerCase to Uppercase</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/LengthCharArray.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/LowerToUpperCase.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/Palindrome.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/Replace.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/Reverse.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/UpperToLowerCase.cpp</t>
+  </si>
+  <si>
+    <t>Getline USE</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/CharArrays/getline.cpp</t>
+  </si>
+  <si>
+    <t>ARRAY &amp; VECTOR</t>
+  </si>
+  <si>
+    <t>SEARCHING &amp; SORTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q. NO </t>
+  </si>
+  <si>
+    <t>CHAR ARRAY &amp; STRINGS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/description/</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>String Basic Functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +385,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -379,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +472,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,17 +809,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE5E5C-175D-457A-A869-808BAF02FDBA}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
@@ -750,212 +828,215 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
+      <c r="B3" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="5">
         <f>SUM(C3:C4)</f>
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="10">
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="19"/>
+    </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
+      <c r="B13" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -963,13 +1044,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -978,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -992,219 +1073,226 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="10">
         <v>5</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10">
         <v>6</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>15</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <f>SUM(C29:C30)</f>
         <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1212,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1226,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1240,21 +1328,21 @@
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F36" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1262,38 +1350,174 @@
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="5">
+        <f>SUM(C40:C41)</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="5">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="5">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="5">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>81</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="5">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C48" s="5">
+        <v>9</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1323,19 +1547,19 @@
     <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B81D5-1D99-4A84-B6FE-81985569C96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4474D361-C36C-4F7E-943C-CE8040D0B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
   <si>
     <t>QUESTION</t>
   </si>
@@ -379,13 +379,88 @@
   </si>
   <si>
     <t>Isomorphic Strings (205)</t>
+  </si>
+  <si>
+    <t>Reorganize String (767)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/description/</t>
+  </si>
+  <si>
+    <t>Group Anagrams (49)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-to-integer-atoi/</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring (5)</t>
+  </si>
+  <si>
+    <t>Find the Index of the First Occurrence in a String (28)</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi) (8)</t>
+  </si>
+  <si>
+    <t>String Compression (443)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-compression/description/</t>
+  </si>
+  <si>
+    <t>Integer to Romans (12)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/zigzag-conversion/</t>
+  </si>
+  <si>
+    <t>Zig Zag Conversion</t>
+  </si>
+  <si>
+    <t>Largest Number (179)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-number/</t>
+  </si>
+  <si>
+    <t>WEEK 6 BASIC MATHS &amp; POINTERS</t>
+  </si>
+  <si>
+    <t>Pointers</t>
+  </si>
+  <si>
+    <t>Count Primes (204)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-primes/description/</t>
+  </si>
+  <si>
+    <t>n(log(logn))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD/HCF </t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/gcd-of-two-numbers3459/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,15 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
+      <sz val="16"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -536,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,8 +644,19 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -898,17 +977,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1085,7 +1164,7 @@
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="27" t="s">
         <v>100</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -1100,7 +1179,7 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="27" t="s">
         <v>100</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1114,7 +1193,7 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="27" t="s">
         <v>100</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -1128,7 +1207,7 @@
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1138,7 +1217,7 @@
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1148,7 +1227,7 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="27" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1504,11 +1583,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="19"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -1517,10 +1596,10 @@
       <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1531,8 +1610,8 @@
       <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="23" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1544,10 +1623,10 @@
       <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="16" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1558,7 +1637,8 @@
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="C58" s="27"/>
+      <c r="D58" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1569,7 +1649,8 @@
       <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="C59" s="27"/>
+      <c r="D59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1577,26 +1658,166 @@
       <c r="A60" s="3">
         <v>6</v>
       </c>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>7</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>11</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>13</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>14</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <f>SUM(A70:A71)</f>
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4474D361-C36C-4F7E-943C-CE8040D0B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C329E8-D3AC-453A-B18B-DDD7B4130AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
   <si>
     <t>QUESTION</t>
   </si>
@@ -454,13 +454,28 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/gcd-of-two-numbers3459/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t>Fast Exponent</t>
+  </si>
+  <si>
+    <t>log b</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/FastExponent.cpp</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/modular-exponentiation-for-large-numbers5537/1</t>
+  </si>
+  <si>
+    <t>Modular Exponentiation of large numbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,14 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -604,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,29 +639,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -979,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +996,7 @@
     <col min="1" max="1" width="7.21875" customWidth="1"/>
     <col min="2" max="2" width="52.21875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="89.44140625" customWidth="1"/>
+    <col min="4" max="4" width="89.44140625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
@@ -998,22 +1006,22 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1136,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1153,7 +1161,7 @@
       <c r="C14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1164,10 +1172,10 @@
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1179,10 +1187,10 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1193,10 +1201,10 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1207,8 +1215,8 @@
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -1217,8 +1225,8 @@
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1227,10 +1235,10 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1241,7 +1249,7 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1252,7 +1260,7 @@
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1263,7 +1271,7 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1274,7 +1282,7 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1285,7 +1293,7 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1296,7 +1304,7 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1307,7 +1315,7 @@
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1318,7 +1326,7 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1326,7 +1334,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1335,7 +1343,7 @@
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1346,7 +1354,7 @@
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1358,7 +1366,7 @@
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1369,7 +1377,7 @@
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1380,7 +1388,7 @@
       <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1391,7 +1399,7 @@
       <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1402,12 +1410,12 @@
       <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1418,17 +1426,17 @@
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1440,7 +1448,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1452,7 +1460,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1465,7 +1473,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1477,7 +1485,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1489,7 +1497,7 @@
         <v>72</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1501,7 +1509,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1513,7 +1521,7 @@
         <v>74</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1524,7 +1532,7 @@
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1535,7 +1543,7 @@
       <c r="B49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1546,7 +1554,7 @@
       <c r="B50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1557,7 +1565,7 @@
       <c r="B51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1568,7 +1576,7 @@
       <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1579,7 +1587,7 @@
       <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1587,7 +1595,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="23"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -1599,7 +1607,7 @@
       <c r="C55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1611,7 +1619,7 @@
         <v>107</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1626,7 +1634,7 @@
       <c r="C57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1637,8 +1645,8 @@
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="26"/>
+      <c r="D58" s="15" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1649,8 +1657,8 @@
       <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="16" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1661,8 +1669,8 @@
       <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="16" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1673,8 +1681,8 @@
       <c r="B61" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="24" t="s">
+      <c r="C61" s="27"/>
+      <c r="D61" s="23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1685,8 +1693,8 @@
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="16" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1697,8 +1705,8 @@
       <c r="B63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="16" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1710,7 +1718,7 @@
         <v>123</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1722,7 +1730,7 @@
         <v>124</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1734,7 +1742,7 @@
         <v>126</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1746,7 +1754,7 @@
         <v>129</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1757,17 +1765,17 @@
       <c r="B68" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="18" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A69" s="21" t="s">
+    <row r="69" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="26"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="25"/>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -1776,8 +1784,8 @@
       <c r="B70" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -1786,10 +1794,10 @@
       <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1801,7 +1809,7 @@
       <c r="B72" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="24" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1809,10 +1817,28 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C329E8-D3AC-453A-B18B-DDD7B4130AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7753ADA4-68A2-4548-BBD3-38029AC1332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
   <si>
     <t>QUESTION</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Pointers</t>
   </si>
   <si>
-    <t>Count Primes (204)</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/count-primes/description/</t>
   </si>
   <si>
@@ -469,6 +466,21 @@
   </si>
   <si>
     <t>Modular Exponentiation of large numbers</t>
+  </si>
+  <si>
+    <t>Count Primes (204)   [using Sieve of Eratosthenes]</t>
+  </si>
+  <si>
+    <t>Prime No in Range using Segmented Sieve</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/SieveOfEratosthenes/SegmentedSieve.cpp</t>
+  </si>
+  <si>
+    <t>Product of Primes</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/product-of-primes5328/1</t>
   </si>
 </sst>
 </file>
@@ -661,10 +673,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -985,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +1008,7 @@
     <col min="1" max="1" width="7.21875" customWidth="1"/>
     <col min="2" max="2" width="52.21875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="89.44140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
@@ -1144,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
@@ -1792,13 +1804,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1807,10 +1819,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1818,13 +1830,13 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="D73" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1832,18 +1844,41 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>7</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7753ADA4-68A2-4548-BBD3-38029AC1332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242DFDBD-EDE8-4104-8D0B-72CBABC05879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
   <si>
     <t>QUESTION</t>
   </si>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/product-of-primes5328/1</t>
+  </si>
+  <si>
+    <t>WEEK 7 RECURSION &amp; BACKTRACKING</t>
+  </si>
+  <si>
+    <t>Climbing Stairs (70)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Array Print</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,7 +688,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1882,7 @@
       <c r="A76" s="3">
         <v>7</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" t="s">
         <v>146</v>
       </c>
       <c r="C76" s="26" t="s">
@@ -1879,6 +1890,48 @@
       </c>
       <c r="D76" s="24" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A77" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>1</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <f>SUM(A78:A79)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242DFDBD-EDE8-4104-8D0B-72CBABC05879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FD3DB-8C35-4F3E-AC0B-F689B8E327EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
   <si>
     <t>QUESTION</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Array Print</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/ArrayPrint.cpp</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,6 +1919,9 @@
       </c>
       <c r="B79" t="s">
         <v>151</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FD3DB-8C35-4F3E-AC0B-F689B8E327EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5C38D-8E48-42B0-9345-37EAB12D08D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>QUESTION</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/ArrayPrint.cpp</t>
+  </si>
+  <si>
+    <t>Find Maximum Element in Array using Recursion</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/MaxElementinArray.cpp</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,6 +1934,12 @@
       <c r="A80" s="3">
         <f>SUM(A78:A79)</f>
         <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5C38D-8E48-42B0-9345-37EAB12D08D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722A8E5-8397-42D7-B1EB-93485B15B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>QUESTION</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/MaxElementinArray.cpp</t>
+  </si>
+  <si>
+    <t>Search Key in String using Recursion</t>
+  </si>
+  <si>
+    <t>Print All Digits of a Number</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,14 +1948,20 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722A8E5-8397-42D7-B1EB-93485B15B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE9EBF4-1328-4E0E-A9FC-1DA84B787651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="162">
   <si>
     <t>QUESTION</t>
   </si>
@@ -508,6 +508,21 @@
   </si>
   <si>
     <t>Print All Digits of a Number</t>
+  </si>
+  <si>
+    <t>Check if array is Sorted</t>
+  </si>
+  <si>
+    <t>Print All Subsequences</t>
+  </si>
+  <si>
+    <t>Minimum no of elements whose sum=target</t>
+  </si>
+  <si>
+    <t>Cut into Segments</t>
+  </si>
+  <si>
+    <t>Maximum sum by using  non adjacent elements</t>
   </si>
 </sst>
 </file>
@@ -650,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -702,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1962,6 +1980,54 @@
       </c>
       <c r="B82" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE9EBF4-1328-4E0E-A9FC-1DA84B787651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB3DD8E-51E1-44C0-95A4-2F4FBAF6AFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="199">
   <si>
     <t>QUESTION</t>
   </si>
@@ -483,9 +483,6 @@
     <t>https://practice.geeksforgeeks.org/problems/product-of-primes5328/1</t>
   </si>
   <si>
-    <t>WEEK 7 RECURSION &amp; BACKTRACKING</t>
-  </si>
-  <si>
     <t>Climbing Stairs (70)</t>
   </si>
   <si>
@@ -523,13 +520,127 @@
   </si>
   <si>
     <t>Maximum sum by using  non adjacent elements</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/SearchCharInString.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/PrintAllDigits.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/isSortedArray.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/BinarySearch.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/Subsequence.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/TargetSum.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/CutIntoSegments.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/MaxSumNonAdjacentElements.cpp</t>
+  </si>
+  <si>
+    <t>Last Occurrence of a Char in String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-strings/description/</t>
+  </si>
+  <si>
+    <t>Palindrome</t>
+  </si>
+  <si>
+    <t>Add Strings (415)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-occurrences-of-a-substring/submissions/991734158/</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Remove All Occurrences of a Substring</t>
+  </si>
+  <si>
+    <t>Print All Subarrays</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>Best time to buy and sell stocks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+  </si>
+  <si>
+    <t>2^n</t>
+  </si>
+  <si>
+    <t>House Robber (198)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>Integer to English Words (273)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-english-words/description/</t>
+  </si>
+  <si>
+    <t>log10(N)</t>
+  </si>
+  <si>
+    <t>WildCard Matching (44)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wildcard-matching/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/perfect-squares/</t>
+  </si>
+  <si>
+    <t>n^n</t>
+  </si>
+  <si>
+    <t>Perfect Squares (279)</t>
+  </si>
+  <si>
+    <t>Minimum Cost For Tickets(983)</t>
+  </si>
+  <si>
+    <t>3^n</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-for-tickets/</t>
+  </si>
+  <si>
+    <t>Number of Dice Rolls With Target Sum (1155)</t>
+  </si>
+  <si>
+    <t>k^n</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-dice-rolls-with-target-sum/</t>
+  </si>
+  <si>
+    <t>WEEK 7 RECURSION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +736,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -665,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,9 +836,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1041,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,7 +2048,7 @@
     </row>
     <row r="77" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="20" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="25"/>
@@ -1937,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1948,10 +2069,10 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1960,82 +2081,289 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D84" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>11</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="24"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>5</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>10</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>11</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>12</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>13</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{846B33F0-CFE5-43BA-B5BB-B74B2BD7CA55}"/>
+    <hyperlink ref="D82" r:id="rId2" xr:uid="{785E8211-A6BF-4F78-8091-273EF27A1883}"/>
+    <hyperlink ref="D98" r:id="rId3" xr:uid="{E5F0E4AF-BC81-406C-8403-B4878B58C96E}"/>
+    <hyperlink ref="D99" r:id="rId4" xr:uid="{F368A342-130F-4F5C-9AD2-C15ACD74DDC2}"/>
+    <hyperlink ref="D100" r:id="rId5" xr:uid="{3D472E97-9C26-4DC3-8D54-E2135FDBF9C1}"/>
+    <hyperlink ref="D101" r:id="rId6" xr:uid="{9BD64E60-9081-498C-8E85-218CD5210AB8}"/>
+    <hyperlink ref="D102" r:id="rId7" xr:uid="{35013DA5-BFCC-4A0B-828C-20FCB88674CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB3DD8E-51E1-44C0-95A4-2F4FBAF6AFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE20A65-9693-4F63-BD73-DEDBAC03BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="202">
   <si>
     <t>QUESTION</t>
   </si>
@@ -634,6 +634,15 @@
   </si>
   <si>
     <t>WEEK 7 RECURSION</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>nlogn</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/MergeSort.cpp</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -842,6 +851,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1162,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,6 +2367,27 @@
       </c>
       <c r="D102" s="32" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A104" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="35">
+        <v>1</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE20A65-9693-4F63-BD73-DEDBAC03BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBD79A-55C1-4DDF-922D-CD0C45C2CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -792,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -851,14 +851,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1181,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,23 +2362,23 @@
       </c>
     </row>
     <row r="104" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="20" t="s">
         <v>198</v>
       </c>
       <c r="C104" s="28"/>
       <c r="D104" s="25"/>
     </row>
-    <row r="105" spans="1:4" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="35">
+    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
         <v>1</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="32" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2399,9 +2391,10 @@
     <hyperlink ref="D100" r:id="rId5" xr:uid="{3D472E97-9C26-4DC3-8D54-E2135FDBF9C1}"/>
     <hyperlink ref="D101" r:id="rId6" xr:uid="{9BD64E60-9081-498C-8E85-218CD5210AB8}"/>
     <hyperlink ref="D102" r:id="rId7" xr:uid="{35013DA5-BFCC-4A0B-828C-20FCB88674CC}"/>
+    <hyperlink ref="D105" r:id="rId8" xr:uid="{3B62833A-508A-4CDE-BF6C-341AF0F6A4C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId8"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBD79A-55C1-4DDF-922D-CD0C45C2CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007701E2-052A-4328-A3D3-7C515A43DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="226">
   <si>
     <t>QUESTION</t>
   </si>
@@ -636,13 +636,85 @@
     <t>WEEK 7 RECURSION</t>
   </si>
   <si>
-    <t>Merge Sort</t>
-  </si>
-  <si>
     <t>nlogn</t>
   </si>
   <si>
     <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/MergeSort.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Backtracking/Permutations.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/QuickSort.cpp</t>
+  </si>
+  <si>
+    <t>nlogn(worst case- n^2)</t>
+  </si>
+  <si>
+    <t>Merge Sort (DnC)</t>
+  </si>
+  <si>
+    <t>Quick Sort (DnC)</t>
+  </si>
+  <si>
+    <t>Permutations (Backtracking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rat in a maze (Backtracking)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>WEEK 7 DnC &amp; Backtracking</t>
+  </si>
+  <si>
+    <t>4^(row+col)</t>
+  </si>
+  <si>
+    <t>N-Queens (Backtracking) (51)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Generate paranthesis (backtracking) (22)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/</t>
+  </si>
+  <si>
+    <t>Sudoku Solver (Backtracking) (37)</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number (Backtracking)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sudoku-solver/description/</t>
+  </si>
+  <si>
+    <t>S.C</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>9^(row+col)</t>
+  </si>
+  <si>
+    <t>row*col</t>
+  </si>
+  <si>
+    <t>worst-n*n(avg-n!)</t>
+  </si>
+  <si>
+    <t>4^n</t>
   </si>
 </sst>
 </file>
@@ -792,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -851,6 +923,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1171,9 +1246,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="91" workbookViewId="0">
       <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
@@ -1181,23 +1256,23 @@
   <cols>
     <col min="1" max="1" width="7.21875" customWidth="1"/>
     <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="89.44140625" customWidth="1"/>
+    <col min="3" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="13"/>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>94</v>
       </c>
@@ -1208,10 +1283,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1219,11 +1297,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1233,11 +1312,12 @@
       <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>SUM(A4:A5)</f>
         <v>3</v>
@@ -1248,11 +1328,12 @@
       <c r="C6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1262,11 +1343,12 @@
       <c r="C7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1276,11 +1358,12 @@
       <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1290,11 +1373,12 @@
       <c r="C9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1304,11 +1388,12 @@
       <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1318,11 +1403,12 @@
       <c r="C11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1330,14 +1416,15 @@
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="D12" s="6"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1347,11 +1434,14 @@
       <c r="C14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1361,11 +1451,14 @@
       <c r="C15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f>SUM(A14:A15)</f>
         <v>3</v>
@@ -1376,11 +1469,12 @@
       <c r="C16" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1390,11 +1484,12 @@
       <c r="C17" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>5</v>
       </c>
@@ -1402,9 +1497,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="27"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -1412,9 +1508,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="27"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -1424,127 +1521,129 @@
       <c r="C20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="5"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f>SUM(A30:A31)</f>
         <v>3</v>
@@ -1552,81 +1651,81 @@
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="15" t="s">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E37" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="15" t="s">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E39" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -1634,11 +1733,12 @@
         <v>70</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -1646,11 +1746,12 @@
         <v>81</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f>SUM(A41:A42)</f>
         <v>3</v>
@@ -1659,11 +1760,12 @@
         <v>69</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -1671,11 +1773,12 @@
         <v>71</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>5</v>
       </c>
@@ -1683,11 +1786,12 @@
         <v>72</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -1695,11 +1799,12 @@
         <v>73</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -1707,83 +1812,85 @@
         <v>74</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="E48" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="E49" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="E51" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="E52" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="E53" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D54" s="5"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -1793,11 +1900,12 @@
       <c r="C55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -1805,11 +1913,12 @@
         <v>107</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <f>SUM(A55:A56)</f>
         <v>3</v>
@@ -1820,11 +1929,12 @@
       <c r="C57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -1832,11 +1942,12 @@
         <v>112</v>
       </c>
       <c r="C58" s="26"/>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5</v>
       </c>
@@ -1844,11 +1955,12 @@
         <v>113</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>6</v>
       </c>
@@ -1856,11 +1968,12 @@
         <v>114</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>7</v>
       </c>
@@ -1868,11 +1981,12 @@
         <v>117</v>
       </c>
       <c r="C61" s="27"/>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>8</v>
       </c>
@@ -1880,11 +1994,12 @@
         <v>121</v>
       </c>
       <c r="C62" s="26"/>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>9</v>
       </c>
@@ -1892,11 +2007,12 @@
         <v>122</v>
       </c>
       <c r="C63" s="26"/>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10</v>
       </c>
@@ -1904,11 +2020,12 @@
         <v>123</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>11</v>
       </c>
@@ -1916,11 +2033,12 @@
         <v>124</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>12</v>
       </c>
@@ -1928,11 +2046,12 @@
         <v>126</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>13</v>
       </c>
@@ -1940,11 +2059,12 @@
         <v>129</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>14</v>
       </c>
@@ -1952,18 +2072,20 @@
         <v>130</v>
       </c>
       <c r="C68" s="27"/>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="27"/>
+      <c r="E68" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A69" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="28"/>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D69" s="28"/>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -1971,9 +2093,10 @@
         <v>133</v>
       </c>
       <c r="C70" s="26"/>
-      <c r="D70" s="24"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D70" s="26"/>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -1983,11 +2106,12 @@
       <c r="C71" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <f>SUM(A70:A71)</f>
         <v>3</v>
@@ -1995,11 +2119,11 @@
       <c r="B72" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="E72" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -2009,11 +2133,12 @@
       <c r="C73" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>5</v>
       </c>
@@ -2023,11 +2148,12 @@
       <c r="C74" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="26"/>
+      <c r="E74" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>6</v>
       </c>
@@ -2037,11 +2163,12 @@
       <c r="C75" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>7</v>
       </c>
@@ -2051,40 +2178,42 @@
       <c r="C76" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="20" t="s">
         <v>198</v>
       </c>
       <c r="C77" s="28"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D77" s="28"/>
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>1</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="E78" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="E79" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <f>SUM(A78:A79)</f>
         <v>3</v>
@@ -2092,105 +2221,106 @@
       <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="E80" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="E81" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>5</v>
       </c>
       <c r="B82" t="s">
         <v>155</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="E82" s="32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="E83" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="E84" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="E85" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="E86" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="E87" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>11</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="E88" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="22"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D89" s="5"/>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>1</v>
       </c>
@@ -2200,9 +2330,10 @@
       <c r="C90" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="24"/>
-    </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D90" s="26"/>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -2212,8 +2343,9 @@
       <c r="C91" s="26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D91" s="26"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>3</v>
       </c>
@@ -2223,11 +2355,12 @@
       <c r="C92" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -2237,8 +2370,9 @@
       <c r="C93" s="26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D93" s="26"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>5</v>
       </c>
@@ -2248,11 +2382,12 @@
       <c r="C94" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="26"/>
+      <c r="E94" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>6</v>
       </c>
@@ -2262,8 +2397,9 @@
       <c r="C95" s="26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D95" s="26"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>7</v>
       </c>
@@ -2273,11 +2409,12 @@
       <c r="C96" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>8</v>
       </c>
@@ -2287,11 +2424,12 @@
       <c r="C97" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="26"/>
+      <c r="E97" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>9</v>
       </c>
@@ -2301,11 +2439,12 @@
       <c r="C98" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="26"/>
+      <c r="E98" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>10</v>
       </c>
@@ -2315,11 +2454,12 @@
       <c r="C99" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="27"/>
+      <c r="E99" s="33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>11</v>
       </c>
@@ -2329,11 +2469,12 @@
       <c r="C100" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="27"/>
+      <c r="E100" s="33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>12</v>
       </c>
@@ -2343,11 +2484,12 @@
       <c r="C101" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="27"/>
+      <c r="E101" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>13</v>
       </c>
@@ -2357,44 +2499,179 @@
       <c r="C102" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="27"/>
+      <c r="E102" s="32" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A104" s="20" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C104" s="28"/>
-      <c r="D104" s="25"/>
-    </row>
-    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D104" s="28"/>
+      <c r="E104" s="25"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>1</v>
       </c>
       <c r="B105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="D105" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="D105" s="32" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="26">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="26">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="32" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="26">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="26">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="26">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="26">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="26">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{846B33F0-CFE5-43BA-B5BB-B74B2BD7CA55}"/>
-    <hyperlink ref="D82" r:id="rId2" xr:uid="{785E8211-A6BF-4F78-8091-273EF27A1883}"/>
-    <hyperlink ref="D98" r:id="rId3" xr:uid="{E5F0E4AF-BC81-406C-8403-B4878B58C96E}"/>
-    <hyperlink ref="D99" r:id="rId4" xr:uid="{F368A342-130F-4F5C-9AD2-C15ACD74DDC2}"/>
-    <hyperlink ref="D100" r:id="rId5" xr:uid="{3D472E97-9C26-4DC3-8D54-E2135FDBF9C1}"/>
-    <hyperlink ref="D101" r:id="rId6" xr:uid="{9BD64E60-9081-498C-8E85-218CD5210AB8}"/>
-    <hyperlink ref="D102" r:id="rId7" xr:uid="{35013DA5-BFCC-4A0B-828C-20FCB88674CC}"/>
-    <hyperlink ref="D105" r:id="rId8" xr:uid="{3B62833A-508A-4CDE-BF6C-341AF0F6A4C9}"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{846B33F0-CFE5-43BA-B5BB-B74B2BD7CA55}"/>
+    <hyperlink ref="E82" r:id="rId2" xr:uid="{785E8211-A6BF-4F78-8091-273EF27A1883}"/>
+    <hyperlink ref="E98" r:id="rId3" xr:uid="{E5F0E4AF-BC81-406C-8403-B4878B58C96E}"/>
+    <hyperlink ref="E99" r:id="rId4" xr:uid="{F368A342-130F-4F5C-9AD2-C15ACD74DDC2}"/>
+    <hyperlink ref="E100" r:id="rId5" xr:uid="{3D472E97-9C26-4DC3-8D54-E2135FDBF9C1}"/>
+    <hyperlink ref="E101" r:id="rId6" xr:uid="{9BD64E60-9081-498C-8E85-218CD5210AB8}"/>
+    <hyperlink ref="E102" r:id="rId7" xr:uid="{35013DA5-BFCC-4A0B-828C-20FCB88674CC}"/>
+    <hyperlink ref="E105" r:id="rId8" xr:uid="{3B62833A-508A-4CDE-BF6C-341AF0F6A4C9}"/>
+    <hyperlink ref="E106" r:id="rId9" xr:uid="{6AD0E3CA-9E22-4933-8C4D-8F74A4222ADA}"/>
+    <hyperlink ref="E107" r:id="rId10" xr:uid="{4B051664-07E3-4B97-906E-2ED1B3F4D6AE}"/>
+    <hyperlink ref="E108" r:id="rId11" xr:uid="{D85C868E-A21F-49AE-BC30-3074AB3F7CD4}"/>
+    <hyperlink ref="E109" r:id="rId12" xr:uid="{173DDB56-875E-4593-96F6-E1AEFB9B6891}"/>
+    <hyperlink ref="E96" r:id="rId13" xr:uid="{32A4670A-4B51-4F82-ACAD-21B9E09C355A}"/>
+    <hyperlink ref="E111" r:id="rId14" xr:uid="{EF1AD582-16F5-46C9-A245-9252881B6689}"/>
+    <hyperlink ref="E110" r:id="rId15" xr:uid="{23DE331B-AB38-46F9-A67F-49CEA993DD8A}"/>
+    <hyperlink ref="E112" r:id="rId16" xr:uid="{EA10D970-1B3B-421C-9593-104C9FE467AA}"/>
+    <hyperlink ref="E9" r:id="rId17" xr:uid="{58B00AB5-BCAB-4BFE-AB3B-D80F5F3782C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007701E2-052A-4328-A3D3-7C515A43DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257E72C-6609-49C9-B965-E5DBD3EF78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="228">
   <si>
     <t>QUESTION</t>
   </si>
@@ -672,9 +672,6 @@
     <t>https://leetcode.com/problems/n-queens/</t>
   </si>
   <si>
-    <t>WEEK 7 DnC &amp; Backtracking</t>
-  </si>
-  <si>
     <t>4^(row+col)</t>
   </si>
   <si>
@@ -715,6 +712,15 @@
   </si>
   <si>
     <t>4^n</t>
+  </si>
+  <si>
+    <t>WEEK 8 DnC &amp; Backtracking</t>
+  </si>
+  <si>
+    <t>Count Inversions : Merge Sort</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/ctci-merge-sort/problem?isFullScreen=true</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,26 +1273,26 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2506,7 +2512,7 @@
     </row>
     <row r="104" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A104" s="20" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -2552,7 +2558,7 @@
         <v>206</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>99</v>
@@ -2569,10 +2575,10 @@
         <v>208</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E108" s="32" t="s">
         <v>209</v>
@@ -2583,10 +2589,10 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D109" s="26" t="s">
         <v>178</v>
@@ -2600,10 +2606,10 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2611,16 +2617,16 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2628,27 +2634,47 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C112" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D112" s="26" t="s">
-        <v>223</v>
-      </c>
       <c r="E112" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="26">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>207</v>
       </c>
+      <c r="E115" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2669,9 +2695,10 @@
     <hyperlink ref="E110" r:id="rId15" xr:uid="{23DE331B-AB38-46F9-A67F-49CEA993DD8A}"/>
     <hyperlink ref="E112" r:id="rId16" xr:uid="{EA10D970-1B3B-421C-9593-104C9FE467AA}"/>
     <hyperlink ref="E9" r:id="rId17" xr:uid="{58B00AB5-BCAB-4BFE-AB3B-D80F5F3782C5}"/>
+    <hyperlink ref="E114" r:id="rId18" xr:uid="{CBFD95AF-B62C-4D88-A40C-A654930D0A13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId18"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257E72C-6609-49C9-B965-E5DBD3EF78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94378DB-02F7-417A-B171-180B464452B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="229">
   <si>
     <t>QUESTION</t>
   </si>
@@ -660,9 +660,6 @@
     <t>Permutations (Backtracking)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Rat in a maze (Backtracking)</t>
   </si>
   <si>
@@ -721,6 +718,12 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/ctci-merge-sort/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>In Place Merge Sort</t>
+  </si>
+  <si>
+    <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/InPlaceMergeSort.cpp</t>
   </si>
 </sst>
 </file>
@@ -1254,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>1</v>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="104" spans="1:5" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A104" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -2558,7 +2561,7 @@
         <v>206</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>99</v>
@@ -2572,16 +2575,16 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2589,16 +2592,16 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D109" s="26" t="s">
         <v>178</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2606,10 +2609,10 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2617,16 +2620,16 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2634,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D112" s="26" t="s">
-        <v>222</v>
-      </c>
       <c r="E112" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2658,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>199</v>
@@ -2667,14 +2670,25 @@
         <v>99</v>
       </c>
       <c r="E114" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="26">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D115" t="s">
-        <v>207</v>
-      </c>
-      <c r="E115" s="32"/>
+      <c r="C115" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="26">
+        <v>1</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Notes/SupremeList.xlsx
+++ b/Notes/SupremeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohil\DSA C++\Programs\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94378DB-02F7-417A-B171-180B464452B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECE5839-63A2-4758-89DE-3710C4C957C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D175BDDB-A848-4601-972F-1D3D4A9EA600}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="243">
   <si>
     <t>QUESTION</t>
   </si>
@@ -724,6 +724,48 @@
   </si>
   <si>
     <t>https://github.com/rohillanishant/DSA-Cpp/blob/master/Recursion/InPlaceMergeSort.cpp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+  </si>
+  <si>
+    <t>Max Sub Array Sum (53)</t>
+  </si>
+  <si>
+    <t>QuickSort (last element as pivot) (2nd Method)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/quick-sort/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t>Combination Sum (39)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/description/</t>
+  </si>
+  <si>
+    <t>Combination Sum II (40)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/description/</t>
+  </si>
+  <si>
+    <t>Permutations II (47)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/beautiful-arrangement/description/</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangment (526)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distribute-repeating-integers/</t>
+  </si>
+  <si>
+    <t>Distribute Repeating Integers (1655)</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729CAF1-278E-4631-9F4C-33A0F04F0881}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2338,7 @@
       <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="32" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2649,14 +2691,14 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="22"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>1</v>
       </c>
@@ -2673,7 +2715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="26">
         <v>2</v>
       </c>
@@ -2688,6 +2730,94 @@
       </c>
       <c r="E115" s="32" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="26">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="26">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="26"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="26">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="26">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="26">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="26">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="26">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2710,9 +2840,17 @@
     <hyperlink ref="E112" r:id="rId16" xr:uid="{EA10D970-1B3B-421C-9593-104C9FE467AA}"/>
     <hyperlink ref="E9" r:id="rId17" xr:uid="{58B00AB5-BCAB-4BFE-AB3B-D80F5F3782C5}"/>
     <hyperlink ref="E114" r:id="rId18" xr:uid="{CBFD95AF-B62C-4D88-A40C-A654930D0A13}"/>
+    <hyperlink ref="E116" r:id="rId19" xr:uid="{2CE82E20-6928-4848-8753-34DA06E50D34}"/>
+    <hyperlink ref="E117" r:id="rId20" xr:uid="{A031566F-4217-42E1-971C-306BFE5D4D51}"/>
+    <hyperlink ref="E118" r:id="rId21" xr:uid="{9F795D25-40E0-41F5-B03D-1E1192C03A2D}"/>
+    <hyperlink ref="E86" r:id="rId22" xr:uid="{31EA5730-E30E-4455-ABBC-CDF2A0B5F735}"/>
+    <hyperlink ref="E119" r:id="rId23" xr:uid="{53D3F01C-AB52-4422-9DC9-001DED0F035C}"/>
+    <hyperlink ref="E120" r:id="rId24" xr:uid="{D4D97AAE-1450-4F7E-94CE-4CBF77B5E92E}"/>
+    <hyperlink ref="E121" r:id="rId25" xr:uid="{5A68D729-2A3D-4812-90C0-566C10604646}"/>
+    <hyperlink ref="E122" r:id="rId26" xr:uid="{F309CA32-0A43-4EE5-A994-A5722826CE68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId19"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId27"/>
 </worksheet>
 </file>
 
